--- a/envo/document/data/list/4.xlsx
+++ b/envo/document/data/list/4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Thịt bò - Beef</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Sữa chua - Yoghurt</t>
   </si>
   <si>
-    <t>Mù tạc - Mustard</t>
-  </si>
-  <si>
-    <t>Bánh ngot - Cake</t>
-  </si>
-  <si>
     <t>Kẹo - Candy</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>Cắt - Slice</t>
   </si>
   <si>
-    <t>Rải - Spread</t>
-  </si>
-  <si>
     <t>Khuấy - Stir</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>Sinh tố - Strawberry smoothie</t>
   </si>
   <si>
-    <t>Cá nạo - Grated fish</t>
-  </si>
-  <si>
     <t>Thit heo nướng - Grilled pork</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t>Trứng chiên - Fried egg</t>
   </si>
   <si>
-    <t>Rau trộn - Mixed vegetables</t>
-  </si>
-  <si>
     <t>Gà hấp - Steamed chicken</t>
   </si>
   <si>
@@ -133,6 +118,18 @@
   </si>
   <si>
     <t>Gà quay - Roasted chicken</t>
+  </si>
+  <si>
+    <t>Bánh sinh nhật -Birthday Cake</t>
+  </si>
+  <si>
+    <t>Chả cá - Grated fish</t>
+  </si>
+  <si>
+    <t>Goi - Mixed vegetables</t>
+  </si>
+  <si>
+    <t>Ngửi - Smell</t>
   </si>
 </sst>
 </file>
@@ -464,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,157 +515,152 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
